--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N2">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O2">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P2">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q2">
-        <v>4.158440710042667</v>
+        <v>7.815316001827556</v>
       </c>
       <c r="R2">
-        <v>37.425966390384</v>
+        <v>70.337844016448</v>
       </c>
       <c r="S2">
-        <v>0.003764852294225455</v>
+        <v>0.005162544779307185</v>
       </c>
       <c r="T2">
-        <v>0.003764852294225455</v>
+        <v>0.005162544779307185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>51.578886</v>
       </c>
       <c r="O3">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P3">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q3">
-        <v>497.8442675492586</v>
+        <v>785.9932674004052</v>
       </c>
       <c r="R3">
-        <v>4480.598407943327</v>
+        <v>7073.939406603648</v>
       </c>
       <c r="S3">
-        <v>0.45072426506487</v>
+        <v>0.5192017108763981</v>
       </c>
       <c r="T3">
-        <v>0.4507242650648701</v>
+        <v>0.5192017108763981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N4">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P4">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q4">
-        <v>104.5077606282844</v>
+        <v>197.6119202536035</v>
       </c>
       <c r="R4">
-        <v>940.56984565456</v>
+        <v>1778.507282282432</v>
       </c>
       <c r="S4">
-        <v>0.09461630207100495</v>
+        <v>0.1305360380815755</v>
       </c>
       <c r="T4">
-        <v>0.09461630207100497</v>
+        <v>0.1305360380815755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N5">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O5">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P5">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q5">
-        <v>1.822638001223</v>
+        <v>2.169657263824333</v>
       </c>
       <c r="R5">
-        <v>16.403742011007</v>
+        <v>19.526915374419</v>
       </c>
       <c r="S5">
-        <v>0.001650128819649927</v>
+        <v>0.001433205359530307</v>
       </c>
       <c r="T5">
-        <v>0.001650128819649926</v>
+        <v>0.001433205359530307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>51.578886</v>
       </c>
       <c r="O6">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P6">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q6">
         <v>218.204356872266</v>
@@ -821,10 +821,10 @@
         <v>1963.839211850394</v>
       </c>
       <c r="S6">
-        <v>0.197551734138374</v>
+        <v>0.1441387351617743</v>
       </c>
       <c r="T6">
-        <v>0.197551734138374</v>
+        <v>0.1441387351617742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N7">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P7">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q7">
-        <v>45.80558657090333</v>
+        <v>54.86024341130233</v>
       </c>
       <c r="R7">
-        <v>412.2502791381299</v>
+        <v>493.7421907017209</v>
       </c>
       <c r="S7">
-        <v>0.04147017589389621</v>
+        <v>0.03623890104358053</v>
       </c>
       <c r="T7">
-        <v>0.04147017589389621</v>
+        <v>0.03623890104358053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H8">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N8">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O8">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P8">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q8">
-        <v>1.521833177102334</v>
+        <v>1.922860629771111</v>
       </c>
       <c r="R8">
-        <v>13.696498593921</v>
+        <v>17.30574566794</v>
       </c>
       <c r="S8">
-        <v>0.001377794593633474</v>
+        <v>0.0012701794915572</v>
       </c>
       <c r="T8">
-        <v>0.001377794593633474</v>
+        <v>0.0012701794915572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H9">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>51.578886</v>
       </c>
       <c r="O9">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P9">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q9">
-        <v>182.1923110643313</v>
+        <v>193.3838003218266</v>
       </c>
       <c r="R9">
-        <v>1639.730799578982</v>
+        <v>1740.45420289644</v>
       </c>
       <c r="S9">
-        <v>0.1649481592088751</v>
+        <v>0.127743078913325</v>
       </c>
       <c r="T9">
-        <v>0.1649481592088751</v>
+        <v>0.127743078913325</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N10">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O10">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P10">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q10">
-        <v>38.24591679393222</v>
+        <v>48.6199382520511</v>
       </c>
       <c r="R10">
-        <v>344.21325114539</v>
+        <v>437.57944426846</v>
       </c>
       <c r="S10">
-        <v>0.03462601432278547</v>
+        <v>0.03211675744584978</v>
       </c>
       <c r="T10">
-        <v>0.03462601432278547</v>
+        <v>0.03211675744584978</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H11">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I11">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J11">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1113,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.143611</v>
+        <v>0.1709536666666667</v>
       </c>
       <c r="N11">
-        <v>0.430833</v>
+        <v>0.512861</v>
       </c>
       <c r="O11">
-        <v>0.006856337892517759</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="P11">
-        <v>0.006856337892517758</v>
+        <v>0.007882947722998253</v>
       </c>
       <c r="Q11">
-        <v>0.07020715744033333</v>
+        <v>0.02576283153577778</v>
       </c>
       <c r="R11">
-        <v>0.631864416963</v>
+        <v>0.231865483822</v>
       </c>
       <c r="S11">
-        <v>6.356218500890316E-05</v>
+        <v>1.701809260356185E-05</v>
       </c>
       <c r="T11">
-        <v>6.356218500890318E-05</v>
+        <v>1.701809260356184E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H12">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I12">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J12">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>51.578886</v>
       </c>
       <c r="O12">
-        <v>0.8208337581746376</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="P12">
-        <v>0.8208337581746377</v>
+        <v>0.7927950496303802</v>
       </c>
       <c r="Q12">
-        <v>8.405129063927332</v>
+        <v>2.590990835374666</v>
       </c>
       <c r="R12">
-        <v>75.64616157534599</v>
+        <v>23.318917518372</v>
       </c>
       <c r="S12">
-        <v>0.00760959976251848</v>
+        <v>0.001711524678882894</v>
       </c>
       <c r="T12">
-        <v>0.007609599762518482</v>
+        <v>0.001711524678882893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H13">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I13">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J13">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.609156666666667</v>
+        <v>4.322599666666666</v>
       </c>
       <c r="N13">
-        <v>10.82747</v>
+        <v>12.967799</v>
       </c>
       <c r="O13">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="P13">
-        <v>0.1723099039328446</v>
+        <v>0.1993220026466216</v>
       </c>
       <c r="Q13">
-        <v>1.764409622685555</v>
+        <v>0.6514186514997777</v>
       </c>
       <c r="R13">
-        <v>15.87968660417</v>
+        <v>5.862767863498</v>
       </c>
       <c r="S13">
-        <v>0.001597411645157981</v>
+        <v>0.0004303060756157647</v>
       </c>
       <c r="T13">
-        <v>0.001597411645157982</v>
+        <v>0.0004303060756157647</v>
       </c>
     </row>
   </sheetData>
